--- a/结果/DT分类/标准差/DT_AE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_AE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C4AD1-19EC-401C-94FA-C8A422A6BCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43520B93-6D8B-4A21-8132-BE473B0E1469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="9012" yWindow="2832" windowWidth="19668" windowHeight="9792" tabRatio="780" firstSheet="1" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,172 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
   </sheetData>
@@ -466,10 +631,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2907435-2FF9-4A5D-899D-AE825C5F9E34}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C37"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +648,177 @@
       </c>
       <c r="C1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>78.480999999999995</v>
+      </c>
+      <c r="C2">
+        <v>81.481499999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>81.875</v>
+      </c>
+      <c r="B4">
+        <v>81.012699999999995</v>
+      </c>
+      <c r="C4">
+        <v>82.715999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>81.25</v>
+      </c>
+      <c r="B6">
+        <v>81.012699999999995</v>
+      </c>
+      <c r="C6">
+        <v>81.481499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>86.875</v>
+      </c>
+      <c r="B8">
+        <v>81.707300000000004</v>
+      </c>
+      <c r="C8">
+        <v>92.307699999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>80.625</v>
+      </c>
+      <c r="B10">
+        <v>92.592600000000004</v>
+      </c>
+      <c r="C10">
+        <v>68.354399999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>83.125</v>
+      </c>
+      <c r="B15">
+        <v>86.363600000000005</v>
+      </c>
+      <c r="C15">
+        <v>80.851100000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>82.5</v>
+      </c>
+      <c r="B17">
+        <v>85.897400000000005</v>
+      </c>
+      <c r="C17">
+        <v>79.268299999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>81.25</v>
+      </c>
+      <c r="B19">
+        <v>79.347800000000007</v>
+      </c>
+      <c r="C19">
+        <v>83.823499999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>82.142899999999997</v>
+      </c>
+      <c r="C21">
+        <v>88.157899999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>82.5</v>
+      </c>
+      <c r="B23">
+        <v>81.25</v>
+      </c>
+      <c r="C23">
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>79.375</v>
+      </c>
+      <c r="B28">
+        <v>81.395300000000006</v>
+      </c>
+      <c r="C28">
+        <v>77.027000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>81.25</v>
+      </c>
+      <c r="B30">
+        <v>83.132499999999993</v>
+      </c>
+      <c r="C30">
+        <v>79.220799999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>86.875</v>
+      </c>
+      <c r="B32">
+        <v>82.352900000000005</v>
+      </c>
+      <c r="C32">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>86.25</v>
+      </c>
+      <c r="B34">
+        <v>91.666700000000006</v>
+      </c>
+      <c r="C34">
+        <v>81.818200000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>80.625</v>
+      </c>
+      <c r="B36">
+        <v>78.378399999999999</v>
+      </c>
+      <c r="C36">
+        <v>82.558099999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>82.625</v>
       </c>
     </row>
   </sheetData>
@@ -493,10 +829,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FEC544-E7E9-4275-88D6-827013C4E56B}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C39"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,6 +846,171 @@
       </c>
       <c r="C1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>91.764700000000005</v>
+      </c>
+      <c r="C2">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>92.5</v>
+      </c>
+      <c r="C4">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>91.25</v>
+      </c>
+      <c r="B6">
+        <v>96.202500000000001</v>
+      </c>
+      <c r="C6">
+        <v>86.419799999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>88.75</v>
+      </c>
+      <c r="B8">
+        <v>89.0411</v>
+      </c>
+      <c r="C8">
+        <v>88.505700000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90.625</v>
+      </c>
+      <c r="B10">
+        <v>86.747</v>
+      </c>
+      <c r="C10">
+        <v>94.805199999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>93.125</v>
+      </c>
+      <c r="B15">
+        <v>91.139200000000002</v>
+      </c>
+      <c r="C15">
+        <v>95.061700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>95</v>
+      </c>
+      <c r="B17">
+        <v>96.470600000000005</v>
+      </c>
+      <c r="C17">
+        <v>93.333299999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>87.5</v>
+      </c>
+      <c r="B19">
+        <v>92.957700000000003</v>
+      </c>
+      <c r="C19">
+        <v>83.146100000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21">
+        <v>92.771100000000004</v>
+      </c>
+      <c r="C21">
+        <v>97.402600000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>89.375</v>
+      </c>
+      <c r="B23">
+        <v>90.243899999999996</v>
+      </c>
+      <c r="C23">
+        <v>88.461500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>93.125</v>
+      </c>
+      <c r="B28">
+        <v>90.243899999999996</v>
+      </c>
+      <c r="C28">
+        <v>96.153800000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>92.5</v>
+      </c>
+      <c r="B30">
+        <v>96.470600000000005</v>
+      </c>
+      <c r="C30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>92.5</v>
+      </c>
+      <c r="B32">
+        <v>93.243200000000002</v>
+      </c>
+      <c r="C32">
+        <v>91.860500000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>88.125</v>
+      </c>
+      <c r="B34">
+        <v>86.075900000000004</v>
+      </c>
+      <c r="C34">
+        <v>90.123500000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>91.875</v>
+      </c>
+      <c r="B36">
+        <v>87.5</v>
+      </c>
+      <c r="C36">
+        <v>96.25</v>
       </c>
     </row>
   </sheetData>
@@ -520,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A003BBD-D7A9-4C55-87C8-AEB88527A965}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C38"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -537,6 +1038,171 @@
       </c>
       <c r="C1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99.375</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>98.795199999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99.375</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>98.701300000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>98.125</v>
+      </c>
+      <c r="B6">
+        <v>97.297300000000007</v>
+      </c>
+      <c r="C6">
+        <v>98.837199999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.125</v>
+      </c>
+      <c r="B8">
+        <v>97.752799999999993</v>
+      </c>
+      <c r="C8">
+        <v>98.591499999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>97.5</v>
+      </c>
+      <c r="B10">
+        <v>97.402600000000007</v>
+      </c>
+      <c r="C10">
+        <v>97.590400000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99.375</v>
+      </c>
+      <c r="B15">
+        <v>98.863600000000005</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>98.125</v>
+      </c>
+      <c r="B17">
+        <v>96</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>98.75</v>
+      </c>
+      <c r="B19">
+        <v>97.435900000000004</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>98.125</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>96.341499999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>99.375</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>98.734200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>96.875</v>
+      </c>
+      <c r="B28">
+        <v>98.648600000000002</v>
+      </c>
+      <c r="C28">
+        <v>95.348799999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>99.375</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>98.611099999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>98.125</v>
+      </c>
+      <c r="B32">
+        <v>97.333299999999994</v>
+      </c>
+      <c r="C32">
+        <v>98.823499999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>98.75</v>
+      </c>
+      <c r="B34">
+        <v>98.780500000000004</v>
+      </c>
+      <c r="C34">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>98.125</v>
+      </c>
+      <c r="B36">
+        <v>97.530900000000003</v>
+      </c>
+      <c r="C36">
+        <v>98.734200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -547,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C163547-D665-4136-B338-5569DDB55E06}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C39"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -564,6 +1230,171 @@
       </c>
       <c r="C1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>99.375</v>
+      </c>
+      <c r="B2">
+        <v>98.7179</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99.375</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>99.375</v>
+      </c>
+      <c r="B6">
+        <v>98.701300000000003</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>98.75</v>
+      </c>
+      <c r="B8">
+        <v>97.647099999999995</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>99.375</v>
+      </c>
+      <c r="B10">
+        <v>98.7179</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>99.375</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>98.684200000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>98.75</v>
+      </c>
+      <c r="B17">
+        <v>96.923100000000005</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>98.125</v>
+      </c>
+      <c r="B19">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="C19">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99.375</v>
+      </c>
+      <c r="B21">
+        <v>98.75</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>98.125</v>
+      </c>
+      <c r="B28">
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>99.375</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>98.611099999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99.375</v>
+      </c>
+      <c r="B32">
+        <v>98.75</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>98.75</v>
+      </c>
+      <c r="B34">
+        <v>98.823499999999996</v>
+      </c>
+      <c r="C34">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -574,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59B205-1512-4356-B031-5BCDF23C7FCC}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,6 +1424,171 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/DT分类/标准差/DT_AE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_AE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43520B93-6D8B-4A21-8132-BE473B0E1469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F3368-D3D6-4B25-9BBC-827C234B59A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9012" yWindow="2832" windowWidth="19668" windowHeight="9792" tabRatio="780" firstSheet="1" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" firstSheet="1" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AE_biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="AE_biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="AE_biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="AE_bzc_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1407,7 +1408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59B205-1512-4356-B031-5BCDF23C7FCC}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C36"/>
     </sheetView>
   </sheetViews>
@@ -1593,4 +1594,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F33CA-4E2C-4C7B-882A-41E1EC4BDF63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/DT分类/标准差/DT_AE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_AE_biaozhuncha.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0F3368-D3D6-4B25-9BBC-827C234B59A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C3F61-3D67-4F6C-85CE-FF1D74976359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="780" firstSheet="1" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="3060" yWindow="2052" windowWidth="19668" windowHeight="9792" tabRatio="880" firstSheet="1" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1598,15 +1610,193 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F33CA-4E2C-4C7B-882A-41E1EC4BDF63}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>100</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>100</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/DT分类/标准差/DT_AE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_AE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20C3F61-3D67-4F6C-85CE-FF1D74976359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD74710-149F-4068-8C2F-BA130527B116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2052" windowWidth="19668" windowHeight="9792" tabRatio="880" firstSheet="1" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="12480" yWindow="456" windowWidth="13620" windowHeight="12360" tabRatio="880" firstSheet="2" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="AE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -633,7 +633,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>100</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -646,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2907435-2FF9-4A5D-899D-AE825C5F9E34}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -830,8 +841,16 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f>AVERAGE(A2:A36)</f>
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
         <v>82.625</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>83.115586666666687</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>82.321066666666653</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FEC544-E7E9-4275-88D6-827013C4E56B}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1043,20 @@
       </c>
       <c r="C36">
         <v>96.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" ref="A38:C38" si="0">AVERAGE(A2:A37)</f>
+        <v>91.916666666666671</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>91.558093333333346</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>92.379359999999991</v>
       </c>
     </row>
   </sheetData>
@@ -1034,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A003BBD-D7A9-4C55-87C8-AEB88527A965}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1216,6 +1249,20 @@
       </c>
       <c r="C36">
         <v>98.734200000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>98.5</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.469700000000003</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.521786666666685</v>
       </c>
     </row>
   </sheetData>
@@ -1226,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C163547-D665-4136-B338-5569DDB55E06}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1408,6 +1455,20 @@
       </c>
       <c r="C36">
         <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>99.166666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>98.706119999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>99.559853333333336</v>
       </c>
     </row>
   </sheetData>
@@ -1418,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B59B205-1512-4356-B031-5BCDF23C7FCC}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1599,6 +1660,20 @@
         <v>100</v>
       </c>
       <c r="C36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>100</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -1610,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9F33CA-4E2C-4C7B-882A-41E1EC4BDF63}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1794,6 +1869,20 @@
         <v>100</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>100</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
